--- a/xlsx/锎_intext.xlsx
+++ b/xlsx/锎_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="629">
   <si>
     <t>锎</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8F%91</t>
   </si>
   <si>
-    <t>鏑</t>
+    <t>镝</t>
   </si>
   <si>
     <t>政策_政策_加州_锎</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%87</t>
   </si>
   <si>
-    <t>錇</t>
+    <t>锫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%80</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B4%A0%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>元素符號</t>
+    <t>元素符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BA%8F</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%92%E7%B3%BB%E5%85%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>錒系元素</t>
+    <t>锕系元素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F_(%E5%8C%96%E5%AD%A6)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%B3%AA%E9%87%8F</t>
   </si>
   <si>
-    <t>原子質量</t>
+    <t>原子质量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%8E%92%E5%B8%83</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%85%8B</t>
   </si>
   <si>
-    <t>物態</t>
+    <t>物态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>固體</t>
+    <t>固体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E6%BA%AB</t>
   </si>
   <si>
-    <t>室溫</t>
+    <t>室温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B</t>
@@ -155,31 +155,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%94%E9%BB%9E</t>
   </si>
   <si>
-    <t>熔點</t>
+    <t>熔点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>開爾文</t>
+    <t>开尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%B0%8F%E5%BA%A6</t>
   </si>
   <si>
-    <t>攝氏度</t>
+    <t>摄氏度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B0%8F%E5%BA%A6</t>
   </si>
   <si>
-    <t>華氏度</t>
+    <t>华氏度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B8%E9%BB%9E</t>
   </si>
   <si>
-    <t>沸點</t>
+    <t>沸点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E5%8E%8B</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E9%9B%A2%E8%83%BD</t>
   </si>
   <si>
-    <t>電離能</t>
+    <t>电离能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%84%A6%E6%AF%8F%E6%91%A9</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/CAS%E8%99%9F</t>
   </si>
   <si>
-    <t>CAS號</t>
+    <t>CAS号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%8E%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%BA%A6</t>
   </si>
   <si>
-    <t>豐度</t>
+    <t>丰度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%A1%B0%E6%9C%9F</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E8%AE%8A%E6%96%B9%E5%BC%8F</t>
   </si>
   <si>
-    <t>衰變方式</t>
+    <t>衰变方式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E8%AE%8A%E8%83%BD%E9%87%8F</t>
   </si>
   <si>
-    <t>衰變能量</t>
+    <t>衰变能量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BC%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>電子伏特</t>
+    <t>电子伏特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%B0%E5%8F%98%E4%BA%A7%E7%89%A9</t>
@@ -293,31 +293,31 @@
     <t>https://zh.wikipedia.org/wiki/%CE%91%E8%A1%B0%E8%AE%8A</t>
   </si>
   <si>
-    <t>Α衰變</t>
+    <t>Α衰变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%A6%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>鋦的同位素</t>
+    <t>锔的同位素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%A6</t>
   </si>
   <si>
-    <t>鋦</t>
+    <t>锔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%99%BC%E8%A3%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>自發裂變</t>
+    <t>自发裂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%92%E8%A1%B0%E8%AE%8A</t>
   </si>
   <si>
-    <t>Β衰變</t>
+    <t>Β衰变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%80%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%85%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>化學元素</t>
+    <t>化学元素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E5%90%88%E6%88%90%E5%85%83%E7%B4%A0</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%88%BE%E5%85%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>超鈾元素</t>
+    <t>超铀元素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E7%9C%BC</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%95%B8</t>
   </si>
   <si>
-    <t>質量數</t>
+    <t>质量数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州大學</t>
+    <t>加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%8D%A1</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E9%8D%B5</t>
   </si>
   <si>
-    <t>化學鍵</t>
+    <t>化学键</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E6%A0%91%E5%B2%AD%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/%D0%9D%D0%B0%D1%83%D1%87%D0%BD%D0%BE-%D0%B8%D1%81%D1%81%D0%BB%D0%B5%D0%B4%D0%BE%D0%B2%D0%B0%D1%82%D0%B5%D0%BB%D1%8C%D1%81%D0%BA%D0%B8%D0%B9_%D0%B8%D0%BD%D1%81%D1%82%D0%B8%D1%82%D1%83%D1%82_%D0%B0%D1%82%D0%BE%D0%BC%D0%BD%D1%8B%D1%85_%D1%80%D0%B5%D0%B0%D0%BA%D1%82%D0%BE%D1%80%D0%BE%D0%B2</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8F%8D%E6%87%89%E7%88%90</t>
   </si>
   <si>
-    <t>核反應爐</t>
+    <t>核反应炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%90%E8%A1%8D%E5%B0%84%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>中子衍射技術</t>
+    <t>中子衍射技术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neutron_spectroscopy</t>
@@ -455,13 +455,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E9%87%8F%E6%95%B0</t>
   </si>
   <si>
-    <t>质量数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>鈣的同位素</t>
+    <t>钙的同位素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Og</t>
@@ -473,19 +470,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
   </si>
   <si>
-    <t>生物累積</t>
+    <t>生物累积</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A1%80%E7%90%83</t>
   </si>
   <si>
-    <t>紅血球</t>
+    <t>红血球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%A3%81%E6%80%A7</t>
   </si>
   <si>
-    <t>鐵磁性</t>
+    <t>铁磁性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%93%81%E7%A3%81%E6%80%A7</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E7%A3%81%E6%80%A7</t>
   </si>
   <si>
-    <t>順磁性</t>
+    <t>顺磁性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%AD%E7%B3%BB%E5%85%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>鑭系元素</t>
+    <t>镧系元素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%87%91</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%B1%A4</t>
   </si>
   <si>
-    <t>電子層</t>
+    <t>电子层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%9F%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>離域電子</t>
+    <t>离域电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E7%A7%AF%E6%A8%A1%E9%87%8F</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81</t>
   </si>
   <si>
-    <t>鋁</t>
+    <t>铝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%8E%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -581,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B4%A0%E9%80%B1%E6%9C%9F%E8%A1%A8</t>
   </si>
   <si>
-    <t>元素週期表</t>
+    <t>元素周期表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AE</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9B%A2%E5%AD%90</t>
   </si>
   <si>
-    <t>正離子</t>
+    <t>正离子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%BA%B6%E6%B6%B2</t>
@@ -635,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>硝酸鹽</t>
+    <t>硝酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%B0%AF%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>高氯酸鹽</t>
+    <t>高氯酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>硫酸鹽</t>
+    <t>硫酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%9F%E5%8C%96%E7%89%A9</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E9%85%B8%E9%B9%BD</t>
   </si>
   <si>
-    <t>草酸鹽</t>
+    <t>草酸盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A2%E6%B0%A7%E5%8C%96%E7%89%A9</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%90%E6%8D%95%E7%8D%B2</t>
   </si>
   <si>
-    <t>中子捕獲</t>
+    <t>中子捕获</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%90%E6%88%AA%E9%9D%A2</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E5%AD%90</t>
   </si>
   <si>
-    <t>質子</t>
+    <t>质子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%85%8B</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%C2%B7%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E8%A5%BF%E5%8D%9A%E6%A0%BC</t>
   </si>
   <si>
-    <t>格倫·西奧多·西博格</t>
+    <t>格伦·西奥多·西博格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%85%83%E7%B4%A0%E7%99%BC%E7%8F%BE%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>化學元素發現年表</t>
+    <t>化学元素发现年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%88</t>
   </si>
   <si>
-    <t>鈈</t>
+    <t>钚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%9A-239</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E6%A0%91%E5%B2%AD_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
@@ -797,31 +794,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E5%AD%90%E8%83%BD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國原子能協會</t>
+    <t>美国原子能协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>核試驗</t>
+    <t>核试验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E8%90%BD%E5%A1%B5</t>
   </si>
   <si>
-    <t>輻射落塵</t>
+    <t>辐射落尘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%96%B0%E6%98%9F</t>
@@ -833,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%AE%8A%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>光變曲線</t>
+    <t>光变曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>鎳的同位素</t>
+    <t>镍的同位素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%87%83%E6%96%99%E5%BE%AA%E7%8E%AF</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%87</t>
   </si>
   <si>
-    <t>鎇</t>
+    <t>镅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A0%B8%E8%83%BD%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -869,31 +866,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE-238</t>
   </si>
   <si>
-    <t>鈾-238</t>
+    <t>铀-238</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A3%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>核裂變</t>
+    <t>核裂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%88%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>鈈的同位素</t>
+    <t>钚的同位素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%87%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>鎇的同位素</t>
+    <t>镅的同位素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%87%E7%9A%84%E5%90%8C%E4%BD%8D%E7%B4%A0</t>
   </si>
   <si>
-    <t>錇的同位素</t>
+    <t>锫的同位素</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/neutron_startup_source</t>
@@ -917,13 +914,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%AE%AE%E9%A0%B8%E7%99%8C</t>
   </si>
   <si>
-    <t>子宮頸癌</t>
+    <t>子宫颈癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E7%99%8C</t>
   </si>
   <si>
-    <t>腦癌</t>
+    <t>脑癌</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Savannah_River_Plant</t>
@@ -953,19 +950,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%90%E8%9D%95</t>
   </si>
   <si>
-    <t>腐蝕</t>
+    <t>腐蚀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E4%B8%AD%E5%AD%90%E6%BF%95%E5%BA%A6%E8%A8%88</t>
   </si>
   <si>
-    <t>en-中子濕度計</t>
+    <t>en-中子湿度计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E7%95%8C%E8%B3%AA%E9%87%8F</t>
   </si>
   <si>
-    <t>臨界質量</t>
+    <t>临界质量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%B8%83%E7%BA%B3</t>
@@ -977,19 +974,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%A0%B8%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>聯合核研究所</t>
+    <t>联合核研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3</t>
   </si>
   <si>
-    <t>鈣</t>
+    <t>钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A6</t>
   </si>
   <si>
-    <t>鈦</t>
+    <t>钛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%BC</t>
@@ -1001,13 +998,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%92</t>
   </si>
   <si>
-    <t>鐒</t>
+    <t>铹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BD%E7%91%AA%E5%B0%84%E7%B7%9A</t>
   </si>
   <si>
-    <t>伽瑪射線</t>
+    <t>伽玛射线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E7%A6%BB%E8%BE%90%E5%B0%84</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%B9%B4%E9%BD%A1</t>
   </si>
   <si>
-    <t>地球年齡</t>
+    <t>地球年龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E8%83%9E</t>
@@ -1037,25 +1034,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>氧化劑</t>
+    <t>氧化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%84%E5%8E%9F%E5%8A%91</t>
   </si>
   <si>
-    <t>還原劑</t>
+    <t>还原剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%AA</t>
   </si>
   <si>
-    <t>銪</t>
+    <t>铕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%93</t>
   </si>
   <si>
-    <t>釓</t>
+    <t>钆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Johan_Gadolin</t>
@@ -1067,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%89%C2%B7%E5%B1%85%E7%A6%AE</t>
   </si>
   <si>
-    <t>瑪莉·居禮</t>
+    <t>玛莉·居礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E5%B1%85%E7%A6%AE</t>
   </si>
   <si>
-    <t>皮埃爾·居禮</t>
+    <t>皮埃尔·居礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B1</t>
   </si>
   <si>
-    <t>鋱</t>
+    <t>铽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%89%B9%E6%AF%94</t>
@@ -1091,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B9</t>
   </si>
   <si>
-    <t>鈹</t>
+    <t>铍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E6%96%B0%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>科技新時代</t>
+    <t>科技新时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Physical_Review</t>
@@ -1121,31 +1118,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%83%E7%B4%A0%E9%80%B1%E6%9C%9F%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-元素週期表</t>
+    <t>Template talk-元素周期表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B4%A0%E5%91%A8%E6%9C%9F%E8%A1%A8</t>
   </si>
   <si>
-    <t>元素周期表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BC%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>鹼金屬</t>
+    <t>碱金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BC%E5%9C%9F%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>鹼土金屬</t>
+    <t>碱土金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/4%E6%97%8F%E5%85%83%E7%B4%A0</t>
@@ -1217,21 +1211,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B5%E7%B4%A0</t>
   </si>
   <si>
-    <t>鹵素</t>
+    <t>卤素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E6%9C%89%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>稀有氣體</t>
+    <t>稀有气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A2</t>
   </si>
   <si>
-    <t>氢</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A6</t>
   </si>
   <si>
@@ -1247,9 +1238,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%8D</t>
   </si>
   <si>
-    <t>铍</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3</t>
   </si>
   <si>
@@ -1289,9 +1277,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%9D</t>
   </si>
   <si>
-    <t>铝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85</t>
   </si>
   <si>
@@ -1319,15 +1304,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AC</t>
   </si>
   <si>
-    <t>氬</t>
+    <t>氩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%99</t>
   </si>
   <si>
-    <t>钙</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%AA</t>
   </si>
   <si>
@@ -1337,9 +1319,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%92%9B</t>
   </si>
   <si>
-    <t>钛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%92</t>
   </si>
   <si>
@@ -1487,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80</t>
   </si>
   <si>
-    <t>銀</t>
+    <t>银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%89</t>
@@ -1583,27 +1562,15 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%95</t>
   </si>
   <si>
-    <t>铕</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%86</t>
   </si>
   <si>
-    <t>钆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%BD</t>
   </si>
   <si>
-    <t>铽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%9D</t>
   </si>
   <si>
-    <t>镝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%AC</t>
   </si>
   <si>
@@ -1757,21 +1724,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%92%9A</t>
   </si>
   <si>
-    <t>钚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%85</t>
   </si>
   <si>
-    <t>镅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%AB</t>
   </si>
   <si>
-    <t>锫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%84</t>
   </si>
   <si>
@@ -1883,25 +1841,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E6%B8%A1%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>過渡金屬</t>
+    <t>过渡金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貧金屬</t>
+    <t>贫金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>類金屬</t>
+    <t>类金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>非金屬</t>
+    <t>非金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BD%8D%E7%B4%A0%E5%88%97%E8%A1%A8</t>
@@ -1913,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%9A%84%E5%9C%B0%E6%AE%BC%E5%85%83%E7%B4%A0%E8%B1%90%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>地球的地殼元素豐度列表</t>
+    <t>地球的地壳元素丰度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B4%A0%E5%88%97%E8%A1%A8</t>
@@ -1925,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1943,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3216,7 +3174,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3738,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -4547,7 +4505,7 @@
         <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4573,10 +4531,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4602,10 +4560,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4631,10 +4589,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4660,10 +4618,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4718,10 +4676,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4747,10 +4705,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4776,10 +4734,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4805,10 +4763,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4834,10 +4792,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4863,10 +4821,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4892,10 +4850,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4921,10 +4879,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4950,10 +4908,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4979,10 +4937,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
         <v>173</v>
-      </c>
-      <c r="F93" t="s">
-        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5008,10 +4966,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5037,10 +4995,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
         <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5066,10 +5024,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
         <v>179</v>
-      </c>
-      <c r="F96" t="s">
-        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5095,10 +5053,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5124,10 +5082,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5153,10 +5111,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5182,10 +5140,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5211,10 +5169,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" t="s">
         <v>189</v>
-      </c>
-      <c r="F101" t="s">
-        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5240,10 +5198,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" t="s">
         <v>191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5269,10 +5227,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
         <v>193</v>
-      </c>
-      <c r="F103" t="s">
-        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5298,10 +5256,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
         <v>195</v>
-      </c>
-      <c r="F104" t="s">
-        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5327,10 +5285,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
         <v>197</v>
-      </c>
-      <c r="F105" t="s">
-        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5356,10 +5314,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
-      </c>
-      <c r="F106" t="s">
-        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5385,10 +5343,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5414,10 +5372,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5443,10 +5401,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5472,10 +5430,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5501,10 +5459,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5530,10 +5488,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5559,10 +5517,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5588,10 +5546,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5704,10 +5662,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>216</v>
+      </c>
+      <c r="F118" t="s">
         <v>217</v>
-      </c>
-      <c r="F118" t="s">
-        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5733,10 +5691,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>218</v>
+      </c>
+      <c r="F119" t="s">
         <v>219</v>
-      </c>
-      <c r="F119" t="s">
-        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5762,10 +5720,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>220</v>
+      </c>
+      <c r="F120" t="s">
         <v>221</v>
-      </c>
-      <c r="F120" t="s">
-        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>35</v>
@@ -5820,10 +5778,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>222</v>
+      </c>
+      <c r="F122" t="s">
         <v>223</v>
-      </c>
-      <c r="F122" t="s">
-        <v>224</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5878,10 +5836,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>224</v>
+      </c>
+      <c r="F124" t="s">
         <v>225</v>
-      </c>
-      <c r="F124" t="s">
-        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -5907,10 +5865,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>226</v>
+      </c>
+      <c r="F125" t="s">
         <v>227</v>
-      </c>
-      <c r="F125" t="s">
-        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5936,10 +5894,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" t="s">
         <v>229</v>
-      </c>
-      <c r="F126" t="s">
-        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5965,10 +5923,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>230</v>
+      </c>
+      <c r="F127" t="s">
         <v>231</v>
-      </c>
-      <c r="F127" t="s">
-        <v>232</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5994,10 +5952,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" t="s">
         <v>233</v>
-      </c>
-      <c r="F128" t="s">
-        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6023,10 +5981,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>234</v>
+      </c>
+      <c r="F129" t="s">
         <v>235</v>
-      </c>
-      <c r="F129" t="s">
-        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6052,10 +6010,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" t="s">
         <v>237</v>
-      </c>
-      <c r="F130" t="s">
-        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>9</v>
@@ -6081,10 +6039,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" t="s">
         <v>239</v>
-      </c>
-      <c r="F131" t="s">
-        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>5</v>
@@ -6110,10 +6068,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" t="s">
         <v>241</v>
-      </c>
-      <c r="F132" t="s">
-        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6139,10 +6097,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>242</v>
+      </c>
+      <c r="F133" t="s">
         <v>243</v>
-      </c>
-      <c r="F133" t="s">
-        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6168,10 +6126,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" t="s">
         <v>245</v>
-      </c>
-      <c r="F134" t="s">
-        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>7</v>
@@ -6197,10 +6155,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>246</v>
+      </c>
+      <c r="F135" t="s">
         <v>247</v>
-      </c>
-      <c r="F135" t="s">
-        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6226,10 +6184,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>248</v>
+      </c>
+      <c r="F136" t="s">
         <v>249</v>
-      </c>
-      <c r="F136" t="s">
-        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6255,10 +6213,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>250</v>
+      </c>
+      <c r="F137" t="s">
         <v>251</v>
-      </c>
-      <c r="F137" t="s">
-        <v>252</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6284,10 +6242,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>252</v>
+      </c>
+      <c r="F138" t="s">
         <v>253</v>
-      </c>
-      <c r="F138" t="s">
-        <v>254</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -6313,10 +6271,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>254</v>
+      </c>
+      <c r="F139" t="s">
         <v>255</v>
-      </c>
-      <c r="F139" t="s">
-        <v>256</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6342,10 +6300,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>256</v>
+      </c>
+      <c r="F140" t="s">
         <v>257</v>
-      </c>
-      <c r="F140" t="s">
-        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6371,10 +6329,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>258</v>
+      </c>
+      <c r="F141" t="s">
         <v>259</v>
-      </c>
-      <c r="F141" t="s">
-        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6400,10 +6358,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142" t="s">
         <v>261</v>
-      </c>
-      <c r="F142" t="s">
-        <v>262</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6429,10 +6387,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" t="s">
         <v>263</v>
-      </c>
-      <c r="F143" t="s">
-        <v>264</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -6458,10 +6416,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>216</v>
+      </c>
+      <c r="F144" t="s">
         <v>217</v>
-      </c>
-      <c r="F144" t="s">
-        <v>218</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6487,10 +6445,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>264</v>
+      </c>
+      <c r="F145" t="s">
         <v>265</v>
-      </c>
-      <c r="F145" t="s">
-        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6516,10 +6474,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>266</v>
+      </c>
+      <c r="F146" t="s">
         <v>267</v>
-      </c>
-      <c r="F146" t="s">
-        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6545,10 +6503,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>268</v>
+      </c>
+      <c r="F147" t="s">
         <v>269</v>
-      </c>
-      <c r="F147" t="s">
-        <v>270</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6574,10 +6532,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>270</v>
+      </c>
+      <c r="F148" t="s">
         <v>271</v>
-      </c>
-      <c r="F148" t="s">
-        <v>272</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6603,10 +6561,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>272</v>
+      </c>
+      <c r="F149" t="s">
         <v>273</v>
-      </c>
-      <c r="F149" t="s">
-        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6632,10 +6590,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>274</v>
+      </c>
+      <c r="F150" t="s">
         <v>275</v>
-      </c>
-      <c r="F150" t="s">
-        <v>276</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6661,10 +6619,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>276</v>
+      </c>
+      <c r="F151" t="s">
         <v>277</v>
-      </c>
-      <c r="F151" t="s">
-        <v>278</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6690,10 +6648,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>278</v>
+      </c>
+      <c r="F152" t="s">
         <v>279</v>
-      </c>
-      <c r="F152" t="s">
-        <v>280</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6719,10 +6677,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>280</v>
+      </c>
+      <c r="F153" t="s">
         <v>281</v>
-      </c>
-      <c r="F153" t="s">
-        <v>282</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6748,10 +6706,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>282</v>
+      </c>
+      <c r="F154" t="s">
         <v>283</v>
-      </c>
-      <c r="F154" t="s">
-        <v>284</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6777,10 +6735,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>284</v>
+      </c>
+      <c r="F155" t="s">
         <v>285</v>
-      </c>
-      <c r="F155" t="s">
-        <v>286</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6806,10 +6764,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>286</v>
+      </c>
+      <c r="F156" t="s">
         <v>287</v>
-      </c>
-      <c r="F156" t="s">
-        <v>288</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6835,10 +6793,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>288</v>
+      </c>
+      <c r="F157" t="s">
         <v>289</v>
-      </c>
-      <c r="F157" t="s">
-        <v>290</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6893,10 +6851,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" t="s">
         <v>291</v>
-      </c>
-      <c r="F159" t="s">
-        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6922,10 +6880,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" t="s">
         <v>293</v>
-      </c>
-      <c r="F160" t="s">
-        <v>294</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6951,10 +6909,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>294</v>
+      </c>
+      <c r="F161" t="s">
         <v>295</v>
-      </c>
-      <c r="F161" t="s">
-        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6980,10 +6938,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" t="s">
         <v>297</v>
-      </c>
-      <c r="F162" t="s">
-        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7009,10 +6967,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="F163" t="s">
         <v>299</v>
-      </c>
-      <c r="F163" t="s">
-        <v>300</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7038,10 +6996,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>300</v>
+      </c>
+      <c r="F164" t="s">
         <v>301</v>
-      </c>
-      <c r="F164" t="s">
-        <v>302</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7067,10 +7025,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165" t="s">
         <v>303</v>
-      </c>
-      <c r="F165" t="s">
-        <v>304</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7096,10 +7054,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>304</v>
+      </c>
+      <c r="F166" t="s">
         <v>305</v>
-      </c>
-      <c r="F166" t="s">
-        <v>306</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7125,10 +7083,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>306</v>
+      </c>
+      <c r="F167" t="s">
         <v>307</v>
-      </c>
-      <c r="F167" t="s">
-        <v>308</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7154,10 +7112,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>308</v>
+      </c>
+      <c r="F168" t="s">
         <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7183,10 +7141,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>310</v>
+      </c>
+      <c r="F169" t="s">
         <v>311</v>
-      </c>
-      <c r="F169" t="s">
-        <v>312</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7212,10 +7170,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>312</v>
+      </c>
+      <c r="F170" t="s">
         <v>313</v>
-      </c>
-      <c r="F170" t="s">
-        <v>314</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7270,10 +7228,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>314</v>
+      </c>
+      <c r="F172" t="s">
         <v>315</v>
-      </c>
-      <c r="F172" t="s">
-        <v>316</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7299,10 +7257,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>316</v>
+      </c>
+      <c r="F173" t="s">
         <v>317</v>
-      </c>
-      <c r="F173" t="s">
-        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7328,10 +7286,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>318</v>
+      </c>
+      <c r="F174" t="s">
         <v>319</v>
-      </c>
-      <c r="F174" t="s">
-        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7357,10 +7315,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>320</v>
+      </c>
+      <c r="F175" t="s">
         <v>321</v>
-      </c>
-      <c r="F175" t="s">
-        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7386,10 +7344,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>322</v>
+      </c>
+      <c r="F176" t="s">
         <v>323</v>
-      </c>
-      <c r="F176" t="s">
-        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7415,10 +7373,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>324</v>
+      </c>
+      <c r="F177" t="s">
         <v>325</v>
-      </c>
-      <c r="F177" t="s">
-        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7444,10 +7402,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>326</v>
+      </c>
+      <c r="F178" t="s">
         <v>327</v>
-      </c>
-      <c r="F178" t="s">
-        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7473,10 +7431,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>328</v>
+      </c>
+      <c r="F179" t="s">
         <v>329</v>
-      </c>
-      <c r="F179" t="s">
-        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7502,10 +7460,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>330</v>
+      </c>
+      <c r="F180" t="s">
         <v>331</v>
-      </c>
-      <c r="F180" t="s">
-        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7531,10 +7489,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>332</v>
+      </c>
+      <c r="F181" t="s">
         <v>333</v>
-      </c>
-      <c r="F181" t="s">
-        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7560,10 +7518,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>334</v>
+      </c>
+      <c r="F182" t="s">
         <v>335</v>
-      </c>
-      <c r="F182" t="s">
-        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7589,10 +7547,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>336</v>
+      </c>
+      <c r="F183" t="s">
         <v>337</v>
-      </c>
-      <c r="F183" t="s">
-        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7618,10 +7576,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>338</v>
+      </c>
+      <c r="F184" t="s">
         <v>339</v>
-      </c>
-      <c r="F184" t="s">
-        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7647,10 +7605,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>340</v>
+      </c>
+      <c r="F185" t="s">
         <v>341</v>
-      </c>
-      <c r="F185" t="s">
-        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7676,10 +7634,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>342</v>
+      </c>
+      <c r="F186" t="s">
         <v>343</v>
-      </c>
-      <c r="F186" t="s">
-        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7705,10 +7663,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>344</v>
+      </c>
+      <c r="F187" t="s">
         <v>345</v>
-      </c>
-      <c r="F187" t="s">
-        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7734,10 +7692,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>346</v>
+      </c>
+      <c r="F188" t="s">
         <v>347</v>
-      </c>
-      <c r="F188" t="s">
-        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7763,10 +7721,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>348</v>
+      </c>
+      <c r="F189" t="s">
         <v>349</v>
-      </c>
-      <c r="F189" t="s">
-        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7792,10 +7750,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>350</v>
+      </c>
+      <c r="F190" t="s">
         <v>351</v>
-      </c>
-      <c r="F190" t="s">
-        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7821,10 +7779,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>352</v>
+      </c>
+      <c r="F191" t="s">
         <v>353</v>
-      </c>
-      <c r="F191" t="s">
-        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7850,10 +7808,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>354</v>
+      </c>
+      <c r="F192" t="s">
         <v>355</v>
-      </c>
-      <c r="F192" t="s">
-        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7879,10 +7837,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>356</v>
+      </c>
+      <c r="F193" t="s">
         <v>357</v>
-      </c>
-      <c r="F193" t="s">
-        <v>358</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7908,10 +7866,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" t="s">
         <v>359</v>
-      </c>
-      <c r="F194" t="s">
-        <v>360</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7937,10 +7895,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>360</v>
+      </c>
+      <c r="F195" t="s">
         <v>361</v>
-      </c>
-      <c r="F195" t="s">
-        <v>362</v>
       </c>
       <c r="G195" t="n">
         <v>8</v>
@@ -7966,10 +7924,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>362</v>
+      </c>
+      <c r="F196" t="s">
         <v>363</v>
-      </c>
-      <c r="F196" t="s">
-        <v>364</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7995,10 +7953,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>364</v>
+      </c>
+      <c r="F197" t="s">
         <v>365</v>
-      </c>
-      <c r="F197" t="s">
-        <v>366</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8024,10 +7982,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>366</v>
+      </c>
+      <c r="F198" t="s">
         <v>367</v>
-      </c>
-      <c r="F198" t="s">
-        <v>368</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8053,10 +8011,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>368</v>
+      </c>
+      <c r="F199" t="s">
         <v>369</v>
-      </c>
-      <c r="F199" t="s">
-        <v>370</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8082,10 +8040,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8111,10 +8069,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>612</v>
@@ -8140,10 +8098,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>478</v>
@@ -8198,10 +8156,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G204" t="n">
         <v>257</v>
@@ -8227,10 +8185,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G205" t="n">
         <v>304</v>
@@ -8256,10 +8214,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>223</v>
@@ -8285,10 +8243,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G207" t="n">
         <v>220</v>
@@ -8314,10 +8272,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G208" t="n">
         <v>347</v>
@@ -8343,10 +8301,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G209" t="n">
         <v>98</v>
@@ -8372,10 +8330,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>43</v>
@@ -8401,10 +8359,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>28</v>
@@ -8430,10 +8388,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>11</v>
@@ -8459,10 +8417,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>20</v>
@@ -8488,10 +8446,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G214" t="n">
         <v>39</v>
@@ -8517,10 +8475,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>192</v>
+      </c>
+      <c r="F215" t="s">
         <v>193</v>
-      </c>
-      <c r="F215" t="s">
-        <v>194</v>
       </c>
       <c r="G215" t="n">
         <v>20</v>
@@ -8546,10 +8504,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>37</v>
@@ -8575,10 +8533,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G217" t="n">
         <v>27</v>
@@ -8604,10 +8562,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="G218" t="n">
         <v>58</v>
@@ -8633,10 +8591,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G219" t="n">
         <v>12</v>
@@ -8662,10 +8620,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8691,10 +8649,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="G221" t="n">
         <v>6</v>
@@ -8720,10 +8678,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>324</v>
+      </c>
+      <c r="F222" t="s">
         <v>325</v>
-      </c>
-      <c r="F222" t="s">
-        <v>326</v>
       </c>
       <c r="G222" t="n">
         <v>81</v>
@@ -8749,10 +8707,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G223" t="n">
         <v>207</v>
@@ -8778,10 +8736,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>190</v>
+      </c>
+      <c r="F224" t="s">
         <v>191</v>
-      </c>
-      <c r="F224" t="s">
-        <v>192</v>
       </c>
       <c r="G224" t="n">
         <v>114</v>
@@ -8807,10 +8765,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>34</v>
@@ -8836,10 +8794,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>54</v>
@@ -8865,10 +8823,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>18</v>
@@ -8894,10 +8852,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>29</v>
@@ -8923,10 +8881,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8952,10 +8910,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>179</v>
       </c>
       <c r="G230" t="n">
         <v>7</v>
@@ -8981,10 +8939,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F231" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9010,10 +8968,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F232" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G232" t="n">
         <v>117</v>
@@ -9039,10 +8997,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F233" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G233" t="n">
         <v>135</v>
@@ -9068,10 +9026,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F234" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -9097,10 +9055,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F235" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G235" t="n">
         <v>12</v>
@@ -9126,10 +9084,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="G236" t="n">
         <v>35</v>
@@ -9155,10 +9113,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G237" t="n">
         <v>9</v>
@@ -9184,10 +9142,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -9213,10 +9171,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G239" t="n">
         <v>16</v>
@@ -9242,10 +9200,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9271,10 +9229,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9300,10 +9258,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -9329,10 +9287,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G243" t="n">
         <v>20</v>
@@ -9358,10 +9316,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9387,10 +9345,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G245" t="n">
         <v>12</v>
@@ -9416,10 +9374,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9445,10 +9403,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G247" t="n">
         <v>6</v>
@@ -9474,10 +9432,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G248" t="n">
         <v>5</v>
@@ -9503,10 +9461,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -9532,10 +9490,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G250" t="n">
         <v>22</v>
@@ -9561,10 +9519,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G251" t="n">
         <v>4</v>
@@ -9590,10 +9548,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9619,10 +9577,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9648,10 +9606,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9677,10 +9635,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G255" t="n">
         <v>8</v>
@@ -9706,10 +9664,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9735,10 +9693,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9764,10 +9722,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G258" t="n">
         <v>13</v>
@@ -9793,10 +9751,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9822,10 +9780,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -9851,10 +9809,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9880,10 +9838,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9909,10 +9867,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9938,10 +9896,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9967,10 +9925,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G265" t="n">
         <v>11</v>
@@ -9996,10 +9954,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10025,10 +9983,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10054,10 +10012,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G268" t="n">
         <v>25</v>
@@ -10083,10 +10041,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G269" t="n">
         <v>80</v>
@@ -10112,10 +10070,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10141,10 +10099,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -10170,10 +10128,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>8</v>
@@ -10199,10 +10157,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G273" t="n">
         <v>13</v>
@@ -10228,10 +10186,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>7</v>
@@ -10257,10 +10215,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>17</v>
@@ -10286,10 +10244,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10315,10 +10273,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10344,10 +10302,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10373,10 +10331,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F279" t="s">
-        <v>522</v>
+        <v>343</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10402,10 +10360,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>524</v>
+        <v>345</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10431,10 +10389,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>353</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10460,10 +10418,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F282" t="s">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -10489,10 +10447,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F283" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -10518,10 +10476,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="F284" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10547,10 +10505,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F285" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10576,10 +10534,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F286" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10605,10 +10563,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10634,10 +10592,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F288" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10663,10 +10621,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F289" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G289" t="n">
         <v>13</v>
@@ -10692,10 +10650,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F290" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G290" t="n">
         <v>36</v>
@@ -10721,10 +10679,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F291" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="G291" t="n">
         <v>46</v>
@@ -10750,10 +10708,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F292" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G292" t="n">
         <v>7</v>
@@ -10779,10 +10737,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10808,10 +10766,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10837,10 +10795,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F295" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="G295" t="n">
         <v>5</v>
@@ -10866,10 +10824,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F296" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10895,10 +10853,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F297" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10924,10 +10882,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10953,10 +10911,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>10</v>
@@ -10982,10 +10940,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F300" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G300" t="n">
         <v>7</v>
@@ -11011,10 +10969,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F301" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11040,10 +10998,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -11069,10 +11027,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>9</v>
@@ -11098,10 +11056,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>5</v>
@@ -11127,10 +11085,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>20</v>
@@ -11156,10 +11114,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>23</v>
@@ -11185,10 +11143,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>262</v>
+      </c>
+      <c r="F307" t="s">
         <v>263</v>
-      </c>
-      <c r="F307" t="s">
-        <v>264</v>
       </c>
       <c r="G307" t="n">
         <v>28</v>
@@ -11214,10 +11172,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11243,10 +11201,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>245</v>
       </c>
       <c r="G309" t="n">
         <v>4</v>
@@ -11272,10 +11230,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>279</v>
       </c>
       <c r="G310" t="n">
         <v>6</v>
@@ -11301,10 +11259,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>6</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -11330,10 +11288,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11359,10 +11317,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11388,10 +11346,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G314" t="n">
         <v>10</v>
@@ -11417,10 +11375,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>326</v>
+      </c>
+      <c r="F315" t="s">
         <v>327</v>
-      </c>
-      <c r="F315" t="s">
-        <v>328</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11446,10 +11404,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11475,10 +11433,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11504,10 +11462,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11533,10 +11491,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11562,10 +11520,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F320" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11591,10 +11549,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F321" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11620,10 +11578,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F322" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11649,10 +11607,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F323" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11678,10 +11636,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F324" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11707,10 +11665,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11736,10 +11694,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -11765,10 +11723,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -11794,10 +11752,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11823,10 +11781,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -11852,10 +11810,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -11881,10 +11839,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F331" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11910,10 +11868,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F332" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11939,10 +11897,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -11968,10 +11926,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -11997,10 +11955,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12026,10 +11984,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12055,10 +12013,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F337" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12084,10 +12042,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F338" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12142,10 +12100,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F340" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12171,10 +12129,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F341" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12200,10 +12158,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F342" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12229,10 +12187,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F343" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12258,10 +12216,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F344" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -12287,10 +12245,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F345" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12316,10 +12274,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12345,10 +12303,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F347" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
